--- a/2014值年返校班级通讯录模板.xlsx
+++ b/2014值年返校班级通讯录模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25600" windowHeight="15960"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="25600" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="261">
   <si>
     <t>XX班级通讯录</t>
   </si>
@@ -789,6 +789,21 @@
   </si>
   <si>
     <t>909771070</t>
+  </si>
+  <si>
+    <t>刘斌</t>
+  </si>
+  <si>
+    <t>微软(亚洲)互联网安全中心</t>
+  </si>
+  <si>
+    <t>高级软件工程师</t>
+  </si>
+  <si>
+    <t>bli@microsoft.com</t>
+  </si>
+  <si>
+    <t>15962109562</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2603,46 +2618,72 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:10" s="20" customFormat="1">
+      <c r="A45" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="23" customHeight="1">
-      <c r="A47" s="24" t="s">
+    <row r="48" spans="1:10" ht="23" customHeight="1">
+      <c r="A48" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
@@ -2671,6 +2712,7 @@
     <hyperlink ref="H42" r:id="rId24"/>
     <hyperlink ref="H44" r:id="rId25"/>
     <hyperlink ref="H43" r:id="rId26"/>
+    <hyperlink ref="H45" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2014值年返校班级通讯录模板.xlsx
+++ b/2014值年返校班级通讯录模板.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
-  <si>
-    <t>XX班级通讯录</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="267">
   <si>
     <t>姓名</t>
   </si>
@@ -68,7 +73,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -124,7 +129,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -159,7 +164,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -191,7 +196,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -220,7 +225,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -270,7 +275,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -290,7 +295,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -316,7 +321,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -363,7 +368,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -383,7 +388,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -409,7 +414,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -435,7 +440,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -455,7 +460,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -481,7 +486,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -501,7 +506,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -518,7 +523,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -547,7 +552,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -579,7 +584,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -608,7 +613,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -640,7 +645,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -690,7 +695,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -749,7 +754,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -766,7 +771,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -924,7 +929,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -950,7 +955,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -967,7 +972,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -990,7 +995,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -1022,7 +1027,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="宋体"/>
@@ -1036,32 +1041,25 @@
   <si>
     <t>班级总人数：                 失联人数：</t>
   </si>
+  <si>
+    <t>黄彦彬</t>
+  </si>
+  <si>
+    <t>0411班级通讯录</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
@@ -1071,13 +1069,13 @@
       <name val="宋体"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,6 +1092,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1182,90 +1186,153 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5b6ca"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffccffcc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5B6CA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1457,7 +1524,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1466,7 +1533,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1475,7 +1542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1484,7 +1551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1493,7 +1560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1502,7 +1569,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1614,8 +1681,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1623,14 +1690,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1649,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1657,7 +1724,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1685,7 +1752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1711,7 +1778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,7 +1804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +1830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1789,7 +1856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1815,7 +1882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1841,7 +1908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1867,7 +1934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1893,7 +1960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1906,9 +1973,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1924,7 +1997,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1943,7 +2016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +2042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2151,7 +2224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2177,7 +2250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2190,9 +2263,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2205,7 +2284,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2224,7 +2303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2254,7 +2333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2280,7 +2359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2306,7 +2385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2332,7 +2411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2358,7 +2437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2384,7 +2463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2410,7 +2489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2436,7 +2515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2462,7 +2541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2475,26 +2554,34 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="7.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
@@ -2506,1507 +2593,2276 @@
     <col min="11" max="256" width="7.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="5">
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" t="s" s="6">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="6">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s" s="6">
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" t="s" s="6">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s" s="6">
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="6">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" t="s" s="6">
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="J5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s" s="6">
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="6">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s" s="6">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s" s="6">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s" s="6">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s" s="6">
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s" s="6">
+      <c r="J6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s" s="6">
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s" s="7">
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s" s="7">
+      <c r="F7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s" s="7">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" t="s" s="7">
+      <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s" s="7">
+      <c r="J7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s" s="7">
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="D8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s" s="8">
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s" s="8">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" t="s" s="8">
+      <c r="I8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I8" t="s" s="8">
+      <c r="J8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s" s="8">
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s" s="7">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" t="s" s="7">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" t="s" s="7">
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" t="s" s="6">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" t="s" s="6">
+      <c r="J10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s" s="8">
+      <c r="D11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s" s="8">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s" s="8">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" t="s" s="8">
+      <c r="I11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I11" t="s" s="8">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s" s="7">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" t="s" s="7">
+      <c r="I12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I12" t="s" s="7">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" t="s" s="7">
+      <c r="E13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s" s="7">
+      <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s" s="7">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" t="s" s="7">
+      <c r="I13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I13" t="s" s="7">
+      <c r="J13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s" s="7">
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" t="s" s="8">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B14" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s" s="8">
+      <c r="E14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s" s="8">
+      <c r="F14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s" s="8">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" t="s" s="8">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s" s="7">
+      <c r="E15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E15" t="s" s="7">
+      <c r="F15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F15" t="s" s="7">
+      <c r="G15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G15" t="s" s="7">
+      <c r="H15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H15" t="s" s="7">
+      <c r="I15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s" s="7">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" t="s" s="7">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" t="s" s="7">
+      <c r="I16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s" s="7">
+      <c r="J16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J16" t="s" s="7">
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B17" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s" s="7">
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="J17" t="s" s="7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="J18" t="s" s="7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s" s="7">
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:256" ht="18" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:256" ht="18" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:256" ht="18" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:256" ht="18" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:256" ht="18" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:256" ht="18" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="E19" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s" s="7">
-        <v>113</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="I19" t="s" s="7">
-        <v>115</v>
-      </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" t="s" s="6">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s" s="6">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s" s="6">
-        <v>119</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" t="s" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s" s="7">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:256" ht="18" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:256" ht="18" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:256" ht="18" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:256" ht="18" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s" s="7">
+      <c r="E42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E21" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>125</v>
-      </c>
-      <c r="B22" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="E23" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="F23" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="G23" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="H23" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="I23" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="J23" t="s" s="7">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="I24" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="J24" t="s" s="8">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="E25" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="F25" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="I25" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>151</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>153</v>
-      </c>
-      <c r="E26" t="s" s="7">
-        <v>154</v>
-      </c>
-      <c r="F26" t="s" s="7">
-        <v>155</v>
-      </c>
-      <c r="G26" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="H26" t="s" s="7">
-        <v>157</v>
-      </c>
-      <c r="I26" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>160</v>
-      </c>
-      <c r="D27" t="s" s="6">
-        <v>161</v>
-      </c>
-      <c r="E27" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="F27" t="s" s="6">
-        <v>163</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" t="s" s="6">
-        <v>164</v>
-      </c>
-      <c r="J27" t="s" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>165</v>
-      </c>
-      <c r="B28" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="E28" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="F28" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="G28" t="s" s="7">
-        <v>170</v>
-      </c>
-      <c r="H28" t="s" s="7">
-        <v>171</v>
-      </c>
-      <c r="I28" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>173</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>174</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>175</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" t="s" s="7">
-        <v>176</v>
-      </c>
-      <c r="I30" t="s" s="7">
-        <v>177</v>
-      </c>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="E31" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="F31" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" t="s" s="8">
-        <v>182</v>
-      </c>
-      <c r="I31" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="J31" t="s" s="8">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>185</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="E32" t="s" s="7">
-        <v>187</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>189</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>190</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" t="s" s="7">
-        <v>191</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="E34" t="s" s="7">
-        <v>193</v>
-      </c>
-      <c r="F34" t="s" s="7">
-        <v>194</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" t="s" s="7">
-        <v>195</v>
-      </c>
-      <c r="I34" t="s" s="7">
-        <v>196</v>
-      </c>
-      <c r="J34" t="s" s="7">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" ht="18" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="D35" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s" s="8">
-        <v>201</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="I35" t="s" s="8">
-        <v>203</v>
-      </c>
-      <c r="J35" t="s" s="8">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" ht="18" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>205</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="D36" t="s" s="8">
-        <v>207</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" ht="18" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="D37" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="E37" t="s" s="8">
-        <v>211</v>
-      </c>
-      <c r="F37" t="s" s="8">
-        <v>212</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" t="s" s="8">
-        <v>213</v>
-      </c>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" ht="18" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>214</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>215</v>
-      </c>
-      <c r="D38" t="s" s="7">
+      <c r="F42" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:256" ht="18" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" t="s" s="7">
-        <v>216</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="J38" t="s" s="7">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" ht="18" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>219</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>220</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>221</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" t="s" s="7">
-        <v>222</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" t="s" s="7">
-        <v>223</v>
-      </c>
-      <c r="I39" t="s" s="7">
-        <v>224</v>
-      </c>
-      <c r="J39" t="s" s="7">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" ht="18" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s" s="7">
-        <v>226</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="E40" t="s" s="7">
-        <v>227</v>
-      </c>
-      <c r="F40" t="s" s="7">
-        <v>228</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" t="s" s="7">
-        <v>229</v>
-      </c>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" ht="18" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>230</v>
-      </c>
-      <c r="B41" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s" s="8">
-        <v>231</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>232</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>233</v>
-      </c>
-      <c r="F41" t="s" s="8">
-        <v>234</v>
-      </c>
-      <c r="G41" t="s" s="8">
-        <v>235</v>
-      </c>
-      <c r="H41" t="s" s="8">
-        <v>236</v>
-      </c>
-      <c r="I41" t="s" s="8">
-        <v>237</v>
-      </c>
-      <c r="J41" t="s" s="8">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" ht="18" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>239</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="D42" t="s" s="7">
+      <c r="F43" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:256" ht="18" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:256" ht="18" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:256" ht="18" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+      <c r="BM46" s="8"/>
+      <c r="BN46" s="8"/>
+      <c r="BO46" s="8"/>
+      <c r="BP46" s="8"/>
+      <c r="BQ46" s="8"/>
+      <c r="BR46" s="8"/>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8"/>
+      <c r="BU46" s="8"/>
+      <c r="BV46" s="8"/>
+      <c r="BW46" s="8"/>
+      <c r="BX46" s="8"/>
+      <c r="BY46" s="8"/>
+      <c r="BZ46" s="8"/>
+      <c r="CA46" s="8"/>
+      <c r="CB46" s="8"/>
+      <c r="CC46" s="8"/>
+      <c r="CD46" s="8"/>
+      <c r="CE46" s="8"/>
+      <c r="CF46" s="8"/>
+      <c r="CG46" s="8"/>
+      <c r="CH46" s="8"/>
+      <c r="CI46" s="8"/>
+      <c r="CJ46" s="8"/>
+      <c r="CK46" s="8"/>
+      <c r="CL46" s="8"/>
+      <c r="CM46" s="8"/>
+      <c r="CN46" s="8"/>
+      <c r="CO46" s="8"/>
+      <c r="CP46" s="8"/>
+      <c r="CQ46" s="8"/>
+      <c r="CR46" s="8"/>
+      <c r="CS46" s="8"/>
+      <c r="CT46" s="8"/>
+      <c r="CU46" s="8"/>
+      <c r="CV46" s="8"/>
+      <c r="CW46" s="8"/>
+      <c r="CX46" s="8"/>
+      <c r="CY46" s="8"/>
+      <c r="CZ46" s="8"/>
+      <c r="DA46" s="8"/>
+      <c r="DB46" s="8"/>
+      <c r="DC46" s="8"/>
+      <c r="DD46" s="8"/>
+      <c r="DE46" s="8"/>
+      <c r="DF46" s="8"/>
+      <c r="DG46" s="8"/>
+      <c r="DH46" s="8"/>
+      <c r="DI46" s="8"/>
+      <c r="DJ46" s="8"/>
+      <c r="DK46" s="8"/>
+      <c r="DL46" s="8"/>
+      <c r="DM46" s="8"/>
+      <c r="DN46" s="8"/>
+      <c r="DO46" s="8"/>
+      <c r="DP46" s="8"/>
+      <c r="DQ46" s="8"/>
+      <c r="DR46" s="8"/>
+      <c r="DS46" s="8"/>
+      <c r="DT46" s="8"/>
+      <c r="DU46" s="8"/>
+      <c r="DV46" s="8"/>
+      <c r="DW46" s="8"/>
+      <c r="DX46" s="8"/>
+      <c r="DY46" s="8"/>
+      <c r="DZ46" s="8"/>
+      <c r="EA46" s="8"/>
+      <c r="EB46" s="8"/>
+      <c r="EC46" s="8"/>
+      <c r="ED46" s="8"/>
+      <c r="EE46" s="8"/>
+      <c r="EF46" s="8"/>
+      <c r="EG46" s="8"/>
+      <c r="EH46" s="8"/>
+      <c r="EI46" s="8"/>
+      <c r="EJ46" s="8"/>
+      <c r="EK46" s="8"/>
+      <c r="EL46" s="8"/>
+      <c r="EM46" s="8"/>
+      <c r="EN46" s="8"/>
+      <c r="EO46" s="8"/>
+      <c r="EP46" s="8"/>
+      <c r="EQ46" s="8"/>
+      <c r="ER46" s="8"/>
+      <c r="ES46" s="8"/>
+      <c r="ET46" s="8"/>
+      <c r="EU46" s="8"/>
+      <c r="EV46" s="8"/>
+      <c r="EW46" s="8"/>
+      <c r="EX46" s="8"/>
+      <c r="EY46" s="8"/>
+      <c r="EZ46" s="8"/>
+      <c r="FA46" s="8"/>
+      <c r="FB46" s="8"/>
+      <c r="FC46" s="8"/>
+      <c r="FD46" s="8"/>
+      <c r="FE46" s="8"/>
+      <c r="FF46" s="8"/>
+      <c r="FG46" s="8"/>
+      <c r="FH46" s="8"/>
+      <c r="FI46" s="8"/>
+      <c r="FJ46" s="8"/>
+      <c r="FK46" s="8"/>
+      <c r="FL46" s="8"/>
+      <c r="FM46" s="8"/>
+      <c r="FN46" s="8"/>
+      <c r="FO46" s="8"/>
+      <c r="FP46" s="8"/>
+      <c r="FQ46" s="8"/>
+      <c r="FR46" s="8"/>
+      <c r="FS46" s="8"/>
+      <c r="FT46" s="8"/>
+      <c r="FU46" s="8"/>
+      <c r="FV46" s="8"/>
+      <c r="FW46" s="8"/>
+      <c r="FX46" s="8"/>
+      <c r="FY46" s="8"/>
+      <c r="FZ46" s="8"/>
+      <c r="GA46" s="8"/>
+      <c r="GB46" s="8"/>
+      <c r="GC46" s="8"/>
+      <c r="GD46" s="8"/>
+      <c r="GE46" s="8"/>
+      <c r="GF46" s="8"/>
+      <c r="GG46" s="8"/>
+      <c r="GH46" s="8"/>
+      <c r="GI46" s="8"/>
+      <c r="GJ46" s="8"/>
+      <c r="GK46" s="8"/>
+      <c r="GL46" s="8"/>
+      <c r="GM46" s="8"/>
+      <c r="GN46" s="8"/>
+      <c r="GO46" s="8"/>
+      <c r="GP46" s="8"/>
+      <c r="GQ46" s="8"/>
+      <c r="GR46" s="8"/>
+      <c r="GS46" s="8"/>
+      <c r="GT46" s="8"/>
+      <c r="GU46" s="8"/>
+      <c r="GV46" s="8"/>
+      <c r="GW46" s="8"/>
+      <c r="GX46" s="8"/>
+      <c r="GY46" s="8"/>
+      <c r="GZ46" s="8"/>
+      <c r="HA46" s="8"/>
+      <c r="HB46" s="8"/>
+      <c r="HC46" s="8"/>
+      <c r="HD46" s="8"/>
+      <c r="HE46" s="8"/>
+      <c r="HF46" s="8"/>
+      <c r="HG46" s="8"/>
+      <c r="HH46" s="8"/>
+      <c r="HI46" s="8"/>
+      <c r="HJ46" s="8"/>
+      <c r="HK46" s="8"/>
+      <c r="HL46" s="8"/>
+      <c r="HM46" s="8"/>
+      <c r="HN46" s="8"/>
+      <c r="HO46" s="8"/>
+      <c r="HP46" s="8"/>
+      <c r="HQ46" s="8"/>
+      <c r="HR46" s="8"/>
+      <c r="HS46" s="8"/>
+      <c r="HT46" s="8"/>
+      <c r="HU46" s="8"/>
+      <c r="HV46" s="8"/>
+      <c r="HW46" s="8"/>
+      <c r="HX46" s="8"/>
+      <c r="HY46" s="8"/>
+      <c r="HZ46" s="8"/>
+      <c r="IA46" s="8"/>
+      <c r="IB46" s="8"/>
+      <c r="IC46" s="8"/>
+      <c r="ID46" s="8"/>
+      <c r="IE46" s="8"/>
+      <c r="IF46" s="8"/>
+      <c r="IG46" s="8"/>
+      <c r="IH46" s="8"/>
+      <c r="II46" s="8"/>
+      <c r="IJ46" s="8"/>
+      <c r="IK46" s="8"/>
+      <c r="IL46" s="8"/>
+      <c r="IM46" s="8"/>
+      <c r="IN46" s="8"/>
+      <c r="IO46" s="8"/>
+      <c r="IP46" s="8"/>
+      <c r="IQ46" s="8"/>
+      <c r="IR46" s="8"/>
+      <c r="IS46" s="8"/>
+      <c r="IT46" s="8"/>
+      <c r="IU46" s="8"/>
+      <c r="IV46" s="8"/>
+    </row>
+    <row r="47" spans="1:256" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A47" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E42" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s" s="7">
-        <v>240</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" t="s" s="7">
-        <v>241</v>
-      </c>
-      <c r="I42" t="s" s="7">
-        <v>242</v>
-      </c>
-      <c r="J42" t="s" s="7">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" ht="18" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>244</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C43" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>245</v>
-      </c>
-      <c r="E43" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="F43" t="s" s="7">
-        <v>246</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" t="s" s="7">
-        <v>247</v>
-      </c>
-      <c r="I43" t="s" s="7">
-        <v>248</v>
-      </c>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" ht="18" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>249</v>
-      </c>
-      <c r="B44" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" t="s" s="7">
-        <v>250</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" ht="18" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>251</v>
-      </c>
-      <c r="B45" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s" s="7">
-        <v>252</v>
-      </c>
-      <c r="E45" t="s" s="7">
-        <v>253</v>
-      </c>
-      <c r="F45" t="s" s="7">
-        <v>254</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" t="s" s="7">
-        <v>255</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" ht="18" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>256</v>
-      </c>
-      <c r="B46" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>257</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" t="s" s="7">
-        <v>258</v>
-      </c>
-      <c r="J46" t="s" s="7">
+      <c r="F47" s="12">
+        <v>18611848695</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12">
+        <v>240595624</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="13"/>
+      <c r="AT47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="13"/>
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="13"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="13"/>
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="13"/>
+      <c r="BJ47" s="13"/>
+      <c r="BK47" s="13"/>
+      <c r="BL47" s="13"/>
+      <c r="BM47" s="13"/>
+      <c r="BN47" s="13"/>
+      <c r="BO47" s="13"/>
+      <c r="BP47" s="13"/>
+      <c r="BQ47" s="13"/>
+      <c r="BR47" s="13"/>
+      <c r="BS47" s="13"/>
+      <c r="BT47" s="13"/>
+      <c r="BU47" s="13"/>
+      <c r="BV47" s="13"/>
+      <c r="BW47" s="13"/>
+      <c r="BX47" s="13"/>
+      <c r="BY47" s="13"/>
+      <c r="BZ47" s="13"/>
+      <c r="CA47" s="13"/>
+      <c r="CB47" s="13"/>
+      <c r="CC47" s="13"/>
+      <c r="CD47" s="13"/>
+      <c r="CE47" s="13"/>
+      <c r="CF47" s="13"/>
+      <c r="CG47" s="13"/>
+      <c r="CH47" s="13"/>
+      <c r="CI47" s="13"/>
+      <c r="CJ47" s="13"/>
+      <c r="CK47" s="13"/>
+      <c r="CL47" s="13"/>
+      <c r="CM47" s="13"/>
+      <c r="CN47" s="13"/>
+      <c r="CO47" s="13"/>
+      <c r="CP47" s="13"/>
+      <c r="CQ47" s="13"/>
+      <c r="CR47" s="13"/>
+      <c r="CS47" s="13"/>
+      <c r="CT47" s="13"/>
+      <c r="CU47" s="13"/>
+      <c r="CV47" s="13"/>
+      <c r="CW47" s="13"/>
+      <c r="CX47" s="13"/>
+      <c r="CY47" s="13"/>
+      <c r="CZ47" s="13"/>
+      <c r="DA47" s="13"/>
+      <c r="DB47" s="13"/>
+      <c r="DC47" s="13"/>
+      <c r="DD47" s="13"/>
+      <c r="DE47" s="13"/>
+      <c r="DF47" s="13"/>
+      <c r="DG47" s="13"/>
+      <c r="DH47" s="13"/>
+      <c r="DI47" s="13"/>
+      <c r="DJ47" s="13"/>
+      <c r="DK47" s="13"/>
+      <c r="DL47" s="13"/>
+      <c r="DM47" s="13"/>
+      <c r="DN47" s="13"/>
+      <c r="DO47" s="13"/>
+      <c r="DP47" s="13"/>
+      <c r="DQ47" s="13"/>
+      <c r="DR47" s="13"/>
+      <c r="DS47" s="13"/>
+      <c r="DT47" s="13"/>
+      <c r="DU47" s="13"/>
+      <c r="DV47" s="13"/>
+      <c r="DW47" s="13"/>
+      <c r="DX47" s="13"/>
+      <c r="DY47" s="13"/>
+      <c r="DZ47" s="13"/>
+      <c r="EA47" s="13"/>
+      <c r="EB47" s="13"/>
+      <c r="EC47" s="13"/>
+      <c r="ED47" s="13"/>
+      <c r="EE47" s="13"/>
+      <c r="EF47" s="13"/>
+      <c r="EG47" s="13"/>
+      <c r="EH47" s="13"/>
+      <c r="EI47" s="13"/>
+      <c r="EJ47" s="13"/>
+      <c r="EK47" s="13"/>
+      <c r="EL47" s="13"/>
+      <c r="EM47" s="13"/>
+      <c r="EN47" s="13"/>
+      <c r="EO47" s="13"/>
+      <c r="EP47" s="13"/>
+      <c r="EQ47" s="13"/>
+      <c r="ER47" s="13"/>
+      <c r="ES47" s="13"/>
+      <c r="ET47" s="13"/>
+      <c r="EU47" s="13"/>
+      <c r="EV47" s="13"/>
+      <c r="EW47" s="13"/>
+      <c r="EX47" s="13"/>
+      <c r="EY47" s="13"/>
+      <c r="EZ47" s="13"/>
+      <c r="FA47" s="13"/>
+      <c r="FB47" s="13"/>
+      <c r="FC47" s="13"/>
+      <c r="FD47" s="13"/>
+      <c r="FE47" s="13"/>
+      <c r="FF47" s="13"/>
+      <c r="FG47" s="13"/>
+      <c r="FH47" s="13"/>
+      <c r="FI47" s="13"/>
+      <c r="FJ47" s="13"/>
+      <c r="FK47" s="13"/>
+      <c r="FL47" s="13"/>
+      <c r="FM47" s="13"/>
+      <c r="FN47" s="13"/>
+      <c r="FO47" s="13"/>
+      <c r="FP47" s="13"/>
+      <c r="FQ47" s="13"/>
+      <c r="FR47" s="13"/>
+      <c r="FS47" s="13"/>
+      <c r="FT47" s="13"/>
+      <c r="FU47" s="13"/>
+      <c r="FV47" s="13"/>
+      <c r="FW47" s="13"/>
+      <c r="FX47" s="13"/>
+      <c r="FY47" s="13"/>
+      <c r="FZ47" s="13"/>
+      <c r="GA47" s="13"/>
+      <c r="GB47" s="13"/>
+      <c r="GC47" s="13"/>
+      <c r="GD47" s="13"/>
+      <c r="GE47" s="13"/>
+      <c r="GF47" s="13"/>
+      <c r="GG47" s="13"/>
+      <c r="GH47" s="13"/>
+      <c r="GI47" s="13"/>
+      <c r="GJ47" s="13"/>
+      <c r="GK47" s="13"/>
+      <c r="GL47" s="13"/>
+      <c r="GM47" s="13"/>
+      <c r="GN47" s="13"/>
+      <c r="GO47" s="13"/>
+      <c r="GP47" s="13"/>
+      <c r="GQ47" s="13"/>
+      <c r="GR47" s="13"/>
+      <c r="GS47" s="13"/>
+      <c r="GT47" s="13"/>
+      <c r="GU47" s="13"/>
+      <c r="GV47" s="13"/>
+      <c r="GW47" s="13"/>
+      <c r="GX47" s="13"/>
+      <c r="GY47" s="13"/>
+      <c r="GZ47" s="13"/>
+      <c r="HA47" s="13"/>
+      <c r="HB47" s="13"/>
+      <c r="HC47" s="13"/>
+      <c r="HD47" s="13"/>
+      <c r="HE47" s="13"/>
+      <c r="HF47" s="13"/>
+      <c r="HG47" s="13"/>
+      <c r="HH47" s="13"/>
+      <c r="HI47" s="13"/>
+      <c r="HJ47" s="13"/>
+      <c r="HK47" s="13"/>
+      <c r="HL47" s="13"/>
+      <c r="HM47" s="13"/>
+      <c r="HN47" s="13"/>
+      <c r="HO47" s="13"/>
+      <c r="HP47" s="13"/>
+      <c r="HQ47" s="13"/>
+      <c r="HR47" s="13"/>
+      <c r="HS47" s="13"/>
+      <c r="HT47" s="13"/>
+      <c r="HU47" s="13"/>
+      <c r="HV47" s="13"/>
+      <c r="HW47" s="13"/>
+      <c r="HX47" s="13"/>
+      <c r="HY47" s="13"/>
+      <c r="HZ47" s="13"/>
+      <c r="IA47" s="13"/>
+      <c r="IB47" s="13"/>
+      <c r="IC47" s="13"/>
+      <c r="ID47" s="13"/>
+      <c r="IE47" s="13"/>
+      <c r="IF47" s="13"/>
+      <c r="IG47" s="13"/>
+      <c r="IH47" s="13"/>
+      <c r="II47" s="13"/>
+      <c r="IJ47" s="13"/>
+      <c r="IK47" s="13"/>
+      <c r="IL47" s="13"/>
+      <c r="IM47" s="13"/>
+      <c r="IN47" s="13"/>
+      <c r="IO47" s="13"/>
+      <c r="IP47" s="13"/>
+      <c r="IQ47" s="13"/>
+      <c r="IR47" s="13"/>
+      <c r="IS47" s="13"/>
+      <c r="IT47" s="13"/>
+      <c r="IU47" s="13"/>
+      <c r="IV47" s="13"/>
+    </row>
+    <row r="48" spans="1:256" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A48" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="47" ht="18" customHeight="1">
-      <c r="A47" t="s" s="9">
+      <c r="B48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B47" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s" s="9">
+      <c r="D48" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D47" t="s" s="9">
+      <c r="E48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E47" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" t="s" s="9">
+      <c r="I48" s="9">
+        <v>9398623</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="I47" s="9">
-        <v>9398623</v>
-      </c>
-      <c r="J47" t="s" s="9">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="10"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
+      <c r="AY48" s="10"/>
+      <c r="AZ48" s="10"/>
+      <c r="BA48" s="10"/>
+      <c r="BB48" s="10"/>
+      <c r="BC48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="10"/>
+      <c r="BF48" s="10"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="10"/>
+      <c r="BI48" s="10"/>
+      <c r="BJ48" s="10"/>
+      <c r="BK48" s="10"/>
+      <c r="BL48" s="10"/>
+      <c r="BM48" s="10"/>
+      <c r="BN48" s="10"/>
+      <c r="BO48" s="10"/>
+      <c r="BP48" s="10"/>
+      <c r="BQ48" s="10"/>
+      <c r="BR48" s="10"/>
+      <c r="BS48" s="10"/>
+      <c r="BT48" s="10"/>
+      <c r="BU48" s="10"/>
+      <c r="BV48" s="10"/>
+      <c r="BW48" s="10"/>
+      <c r="BX48" s="10"/>
+      <c r="BY48" s="10"/>
+      <c r="BZ48" s="10"/>
+      <c r="CA48" s="10"/>
+      <c r="CB48" s="10"/>
+      <c r="CC48" s="10"/>
+      <c r="CD48" s="10"/>
+      <c r="CE48" s="10"/>
+      <c r="CF48" s="10"/>
+      <c r="CG48" s="10"/>
+      <c r="CH48" s="10"/>
+      <c r="CI48" s="10"/>
+      <c r="CJ48" s="10"/>
+      <c r="CK48" s="10"/>
+      <c r="CL48" s="10"/>
+      <c r="CM48" s="10"/>
+      <c r="CN48" s="10"/>
+      <c r="CO48" s="10"/>
+      <c r="CP48" s="10"/>
+      <c r="CQ48" s="10"/>
+      <c r="CR48" s="10"/>
+      <c r="CS48" s="10"/>
+      <c r="CT48" s="10"/>
+      <c r="CU48" s="10"/>
+      <c r="CV48" s="10"/>
+      <c r="CW48" s="10"/>
+      <c r="CX48" s="10"/>
+      <c r="CY48" s="10"/>
+      <c r="CZ48" s="10"/>
+      <c r="DA48" s="10"/>
+      <c r="DB48" s="10"/>
+      <c r="DC48" s="10"/>
+      <c r="DD48" s="10"/>
+      <c r="DE48" s="10"/>
+      <c r="DF48" s="10"/>
+      <c r="DG48" s="10"/>
+      <c r="DH48" s="10"/>
+      <c r="DI48" s="10"/>
+      <c r="DJ48" s="10"/>
+      <c r="DK48" s="10"/>
+      <c r="DL48" s="10"/>
+      <c r="DM48" s="10"/>
+      <c r="DN48" s="10"/>
+      <c r="DO48" s="10"/>
+      <c r="DP48" s="10"/>
+      <c r="DQ48" s="10"/>
+      <c r="DR48" s="10"/>
+      <c r="DS48" s="10"/>
+      <c r="DT48" s="10"/>
+      <c r="DU48" s="10"/>
+      <c r="DV48" s="10"/>
+      <c r="DW48" s="10"/>
+      <c r="DX48" s="10"/>
+      <c r="DY48" s="10"/>
+      <c r="DZ48" s="10"/>
+      <c r="EA48" s="10"/>
+      <c r="EB48" s="10"/>
+      <c r="EC48" s="10"/>
+      <c r="ED48" s="10"/>
+      <c r="EE48" s="10"/>
+      <c r="EF48" s="10"/>
+      <c r="EG48" s="10"/>
+      <c r="EH48" s="10"/>
+      <c r="EI48" s="10"/>
+      <c r="EJ48" s="10"/>
+      <c r="EK48" s="10"/>
+      <c r="EL48" s="10"/>
+      <c r="EM48" s="10"/>
+      <c r="EN48" s="10"/>
+      <c r="EO48" s="10"/>
+      <c r="EP48" s="10"/>
+      <c r="EQ48" s="10"/>
+      <c r="ER48" s="10"/>
+      <c r="ES48" s="10"/>
+      <c r="ET48" s="10"/>
+      <c r="EU48" s="10"/>
+      <c r="EV48" s="10"/>
+      <c r="EW48" s="10"/>
+      <c r="EX48" s="10"/>
+      <c r="EY48" s="10"/>
+      <c r="EZ48" s="10"/>
+      <c r="FA48" s="10"/>
+      <c r="FB48" s="10"/>
+      <c r="FC48" s="10"/>
+      <c r="FD48" s="10"/>
+      <c r="FE48" s="10"/>
+      <c r="FF48" s="10"/>
+      <c r="FG48" s="10"/>
+      <c r="FH48" s="10"/>
+      <c r="FI48" s="10"/>
+      <c r="FJ48" s="10"/>
+      <c r="FK48" s="10"/>
+      <c r="FL48" s="10"/>
+      <c r="FM48" s="10"/>
+      <c r="FN48" s="10"/>
+      <c r="FO48" s="10"/>
+      <c r="FP48" s="10"/>
+      <c r="FQ48" s="10"/>
+      <c r="FR48" s="10"/>
+      <c r="FS48" s="10"/>
+      <c r="FT48" s="10"/>
+      <c r="FU48" s="10"/>
+      <c r="FV48" s="10"/>
+      <c r="FW48" s="10"/>
+      <c r="FX48" s="10"/>
+      <c r="FY48" s="10"/>
+      <c r="FZ48" s="10"/>
+      <c r="GA48" s="10"/>
+      <c r="GB48" s="10"/>
+      <c r="GC48" s="10"/>
+      <c r="GD48" s="10"/>
+      <c r="GE48" s="10"/>
+      <c r="GF48" s="10"/>
+      <c r="GG48" s="10"/>
+      <c r="GH48" s="10"/>
+      <c r="GI48" s="10"/>
+      <c r="GJ48" s="10"/>
+      <c r="GK48" s="10"/>
+      <c r="GL48" s="10"/>
+      <c r="GM48" s="10"/>
+      <c r="GN48" s="10"/>
+      <c r="GO48" s="10"/>
+      <c r="GP48" s="10"/>
+      <c r="GQ48" s="10"/>
+      <c r="GR48" s="10"/>
+      <c r="GS48" s="10"/>
+      <c r="GT48" s="10"/>
+      <c r="GU48" s="10"/>
+      <c r="GV48" s="10"/>
+      <c r="GW48" s="10"/>
+      <c r="GX48" s="10"/>
+      <c r="GY48" s="10"/>
+      <c r="GZ48" s="10"/>
+      <c r="HA48" s="10"/>
+      <c r="HB48" s="10"/>
+      <c r="HC48" s="10"/>
+      <c r="HD48" s="10"/>
+      <c r="HE48" s="10"/>
+      <c r="HF48" s="10"/>
+      <c r="HG48" s="10"/>
+      <c r="HH48" s="10"/>
+      <c r="HI48" s="10"/>
+      <c r="HJ48" s="10"/>
+      <c r="HK48" s="10"/>
+      <c r="HL48" s="10"/>
+      <c r="HM48" s="10"/>
+      <c r="HN48" s="10"/>
+      <c r="HO48" s="10"/>
+      <c r="HP48" s="10"/>
+      <c r="HQ48" s="10"/>
+      <c r="HR48" s="10"/>
+      <c r="HS48" s="10"/>
+      <c r="HT48" s="10"/>
+      <c r="HU48" s="10"/>
+      <c r="HV48" s="10"/>
+      <c r="HW48" s="10"/>
+      <c r="HX48" s="10"/>
+      <c r="HY48" s="10"/>
+      <c r="HZ48" s="10"/>
+      <c r="IA48" s="10"/>
+      <c r="IB48" s="10"/>
+      <c r="IC48" s="10"/>
+      <c r="ID48" s="10"/>
+      <c r="IE48" s="10"/>
+      <c r="IF48" s="10"/>
+      <c r="IG48" s="10"/>
+      <c r="IH48" s="10"/>
+      <c r="II48" s="10"/>
+      <c r="IJ48" s="10"/>
+      <c r="IK48" s="10"/>
+      <c r="IL48" s="10"/>
+      <c r="IM48" s="10"/>
+      <c r="IN48" s="10"/>
+      <c r="IO48" s="10"/>
+      <c r="IP48" s="10"/>
+      <c r="IQ48" s="10"/>
+      <c r="IR48" s="10"/>
+      <c r="IS48" s="10"/>
+      <c r="IT48" s="10"/>
+      <c r="IU48" s="10"/>
+      <c r="IV48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="23" customHeight="1">
+      <c r="A49" s="18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="48" ht="23" customHeight="1">
-      <c r="A48" t="s" s="11">
-        <v>265</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="H5" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="H6" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="H7" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="H8" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="H11" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="H12" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="H13" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="H15" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="H16" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="H17" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="H18" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="H19" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="H20" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="H21" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="H22" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="H23" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="H24" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="H25" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="H26" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="H28" r:id="rId21" location="" tooltip="" display=""/>
-    <hyperlink ref="H32" r:id="rId22" location="" tooltip="" display=""/>
-    <hyperlink ref="H33" r:id="rId23" location="" tooltip="" display=""/>
-    <hyperlink ref="H42" r:id="rId24" location="" tooltip="" display=""/>
-    <hyperlink ref="H43" r:id="rId25" location="" tooltip="" display=""/>
-    <hyperlink ref="H44" r:id="rId26" location="" tooltip="" display=""/>
-    <hyperlink ref="H45" r:id="rId27" location="" tooltip="" display=""/>
-    <hyperlink ref="H47" r:id="rId28" location="" tooltip="" display=""/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H11" r:id="rId6"/>
+    <hyperlink ref="H12" r:id="rId7"/>
+    <hyperlink ref="H13" r:id="rId8"/>
+    <hyperlink ref="H15" r:id="rId9"/>
+    <hyperlink ref="H16" r:id="rId10"/>
+    <hyperlink ref="H17" r:id="rId11"/>
+    <hyperlink ref="H18" r:id="rId12"/>
+    <hyperlink ref="H19" r:id="rId13"/>
+    <hyperlink ref="H20" r:id="rId14"/>
+    <hyperlink ref="H21" r:id="rId15"/>
+    <hyperlink ref="H22" r:id="rId16"/>
+    <hyperlink ref="H23" r:id="rId17"/>
+    <hyperlink ref="H24" r:id="rId18"/>
+    <hyperlink ref="H25" r:id="rId19"/>
+    <hyperlink ref="H26" r:id="rId20"/>
+    <hyperlink ref="H28" r:id="rId21"/>
+    <hyperlink ref="H32" r:id="rId22"/>
+    <hyperlink ref="H33" r:id="rId23"/>
+    <hyperlink ref="H42" r:id="rId24"/>
+    <hyperlink ref="H43" r:id="rId25"/>
+    <hyperlink ref="H45" r:id="rId26"/>
+    <hyperlink ref="H48" r:id="rId27"/>
+    <hyperlink ref="H44" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="14" customWidth="1"/>
-    <col min="6" max="256" width="7.875" style="14" customWidth="1"/>
+    <col min="1" max="256" width="7.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="16" customWidth="1"/>
-    <col min="6" max="256" width="7.875" style="16" customWidth="1"/>
+    <col min="1" max="256" width="7.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/2014值年返校班级通讯录模板.xlsx
+++ b/2014值年返校班级通讯录模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="271">
   <si>
     <t>姓名</t>
   </si>
@@ -1046,6 +1046,18 @@
   </si>
   <si>
     <t>0411班级通讯录</t>
+  </si>
+  <si>
+    <t>黄斌</t>
+  </si>
+  <si>
+    <t>江苏无锡</t>
+  </si>
+  <si>
+    <t>jsjjhuangbin@gmail.com</t>
+  </si>
+  <si>
+    <t>dreamlyer</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1202,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1253,6 +1265,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2573,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -4341,298 +4362,570 @@
       <c r="IU47" s="13"/>
       <c r="IV47" s="13"/>
     </row>
-    <row r="48" spans="1:256" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:256" s="23" customFormat="1" ht="18" customHeight="1">
+      <c r="A48" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21">
+        <v>13815983764</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="21">
+        <v>376434326</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="22"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="22"/>
+      <c r="AQ48" s="22"/>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="22"/>
+      <c r="AT48" s="22"/>
+      <c r="AU48" s="22"/>
+      <c r="AV48" s="22"/>
+      <c r="AW48" s="22"/>
+      <c r="AX48" s="22"/>
+      <c r="AY48" s="22"/>
+      <c r="AZ48" s="22"/>
+      <c r="BA48" s="22"/>
+      <c r="BB48" s="22"/>
+      <c r="BC48" s="22"/>
+      <c r="BD48" s="22"/>
+      <c r="BE48" s="22"/>
+      <c r="BF48" s="22"/>
+      <c r="BG48" s="22"/>
+      <c r="BH48" s="22"/>
+      <c r="BI48" s="22"/>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="22"/>
+      <c r="BL48" s="22"/>
+      <c r="BM48" s="22"/>
+      <c r="BN48" s="22"/>
+      <c r="BO48" s="22"/>
+      <c r="BP48" s="22"/>
+      <c r="BQ48" s="22"/>
+      <c r="BR48" s="22"/>
+      <c r="BS48" s="22"/>
+      <c r="BT48" s="22"/>
+      <c r="BU48" s="22"/>
+      <c r="BV48" s="22"/>
+      <c r="BW48" s="22"/>
+      <c r="BX48" s="22"/>
+      <c r="BY48" s="22"/>
+      <c r="BZ48" s="22"/>
+      <c r="CA48" s="22"/>
+      <c r="CB48" s="22"/>
+      <c r="CC48" s="22"/>
+      <c r="CD48" s="22"/>
+      <c r="CE48" s="22"/>
+      <c r="CF48" s="22"/>
+      <c r="CG48" s="22"/>
+      <c r="CH48" s="22"/>
+      <c r="CI48" s="22"/>
+      <c r="CJ48" s="22"/>
+      <c r="CK48" s="22"/>
+      <c r="CL48" s="22"/>
+      <c r="CM48" s="22"/>
+      <c r="CN48" s="22"/>
+      <c r="CO48" s="22"/>
+      <c r="CP48" s="22"/>
+      <c r="CQ48" s="22"/>
+      <c r="CR48" s="22"/>
+      <c r="CS48" s="22"/>
+      <c r="CT48" s="22"/>
+      <c r="CU48" s="22"/>
+      <c r="CV48" s="22"/>
+      <c r="CW48" s="22"/>
+      <c r="CX48" s="22"/>
+      <c r="CY48" s="22"/>
+      <c r="CZ48" s="22"/>
+      <c r="DA48" s="22"/>
+      <c r="DB48" s="22"/>
+      <c r="DC48" s="22"/>
+      <c r="DD48" s="22"/>
+      <c r="DE48" s="22"/>
+      <c r="DF48" s="22"/>
+      <c r="DG48" s="22"/>
+      <c r="DH48" s="22"/>
+      <c r="DI48" s="22"/>
+      <c r="DJ48" s="22"/>
+      <c r="DK48" s="22"/>
+      <c r="DL48" s="22"/>
+      <c r="DM48" s="22"/>
+      <c r="DN48" s="22"/>
+      <c r="DO48" s="22"/>
+      <c r="DP48" s="22"/>
+      <c r="DQ48" s="22"/>
+      <c r="DR48" s="22"/>
+      <c r="DS48" s="22"/>
+      <c r="DT48" s="22"/>
+      <c r="DU48" s="22"/>
+      <c r="DV48" s="22"/>
+      <c r="DW48" s="22"/>
+      <c r="DX48" s="22"/>
+      <c r="DY48" s="22"/>
+      <c r="DZ48" s="22"/>
+      <c r="EA48" s="22"/>
+      <c r="EB48" s="22"/>
+      <c r="EC48" s="22"/>
+      <c r="ED48" s="22"/>
+      <c r="EE48" s="22"/>
+      <c r="EF48" s="22"/>
+      <c r="EG48" s="22"/>
+      <c r="EH48" s="22"/>
+      <c r="EI48" s="22"/>
+      <c r="EJ48" s="22"/>
+      <c r="EK48" s="22"/>
+      <c r="EL48" s="22"/>
+      <c r="EM48" s="22"/>
+      <c r="EN48" s="22"/>
+      <c r="EO48" s="22"/>
+      <c r="EP48" s="22"/>
+      <c r="EQ48" s="22"/>
+      <c r="ER48" s="22"/>
+      <c r="ES48" s="22"/>
+      <c r="ET48" s="22"/>
+      <c r="EU48" s="22"/>
+      <c r="EV48" s="22"/>
+      <c r="EW48" s="22"/>
+      <c r="EX48" s="22"/>
+      <c r="EY48" s="22"/>
+      <c r="EZ48" s="22"/>
+      <c r="FA48" s="22"/>
+      <c r="FB48" s="22"/>
+      <c r="FC48" s="22"/>
+      <c r="FD48" s="22"/>
+      <c r="FE48" s="22"/>
+      <c r="FF48" s="22"/>
+      <c r="FG48" s="22"/>
+      <c r="FH48" s="22"/>
+      <c r="FI48" s="22"/>
+      <c r="FJ48" s="22"/>
+      <c r="FK48" s="22"/>
+      <c r="FL48" s="22"/>
+      <c r="FM48" s="22"/>
+      <c r="FN48" s="22"/>
+      <c r="FO48" s="22"/>
+      <c r="FP48" s="22"/>
+      <c r="FQ48" s="22"/>
+      <c r="FR48" s="22"/>
+      <c r="FS48" s="22"/>
+      <c r="FT48" s="22"/>
+      <c r="FU48" s="22"/>
+      <c r="FV48" s="22"/>
+      <c r="FW48" s="22"/>
+      <c r="FX48" s="22"/>
+      <c r="FY48" s="22"/>
+      <c r="FZ48" s="22"/>
+      <c r="GA48" s="22"/>
+      <c r="GB48" s="22"/>
+      <c r="GC48" s="22"/>
+      <c r="GD48" s="22"/>
+      <c r="GE48" s="22"/>
+      <c r="GF48" s="22"/>
+      <c r="GG48" s="22"/>
+      <c r="GH48" s="22"/>
+      <c r="GI48" s="22"/>
+      <c r="GJ48" s="22"/>
+      <c r="GK48" s="22"/>
+      <c r="GL48" s="22"/>
+      <c r="GM48" s="22"/>
+      <c r="GN48" s="22"/>
+      <c r="GO48" s="22"/>
+      <c r="GP48" s="22"/>
+      <c r="GQ48" s="22"/>
+      <c r="GR48" s="22"/>
+      <c r="GS48" s="22"/>
+      <c r="GT48" s="22"/>
+      <c r="GU48" s="22"/>
+      <c r="GV48" s="22"/>
+      <c r="GW48" s="22"/>
+      <c r="GX48" s="22"/>
+      <c r="GY48" s="22"/>
+      <c r="GZ48" s="22"/>
+      <c r="HA48" s="22"/>
+      <c r="HB48" s="22"/>
+      <c r="HC48" s="22"/>
+      <c r="HD48" s="22"/>
+      <c r="HE48" s="22"/>
+      <c r="HF48" s="22"/>
+      <c r="HG48" s="22"/>
+      <c r="HH48" s="22"/>
+      <c r="HI48" s="22"/>
+      <c r="HJ48" s="22"/>
+      <c r="HK48" s="22"/>
+      <c r="HL48" s="22"/>
+      <c r="HM48" s="22"/>
+      <c r="HN48" s="22"/>
+      <c r="HO48" s="22"/>
+      <c r="HP48" s="22"/>
+      <c r="HQ48" s="22"/>
+      <c r="HR48" s="22"/>
+      <c r="HS48" s="22"/>
+      <c r="HT48" s="22"/>
+      <c r="HU48" s="22"/>
+      <c r="HV48" s="22"/>
+      <c r="HW48" s="22"/>
+      <c r="HX48" s="22"/>
+      <c r="HY48" s="22"/>
+      <c r="HZ48" s="22"/>
+      <c r="IA48" s="22"/>
+      <c r="IB48" s="22"/>
+      <c r="IC48" s="22"/>
+      <c r="ID48" s="22"/>
+      <c r="IE48" s="22"/>
+      <c r="IF48" s="22"/>
+      <c r="IG48" s="22"/>
+      <c r="IH48" s="22"/>
+      <c r="II48" s="22"/>
+      <c r="IJ48" s="22"/>
+      <c r="IK48" s="22"/>
+      <c r="IL48" s="22"/>
+      <c r="IM48" s="22"/>
+      <c r="IN48" s="22"/>
+      <c r="IO48" s="22"/>
+      <c r="IP48" s="22"/>
+      <c r="IQ48" s="22"/>
+      <c r="IR48" s="22"/>
+      <c r="IS48" s="22"/>
+      <c r="IT48" s="22"/>
+      <c r="IU48" s="22"/>
+      <c r="IV48" s="22"/>
+    </row>
+    <row r="49" spans="1:256" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I49" s="9">
         <v>9398623</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J49" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
-      <c r="AU48" s="10"/>
-      <c r="AV48" s="10"/>
-      <c r="AW48" s="10"/>
-      <c r="AX48" s="10"/>
-      <c r="AY48" s="10"/>
-      <c r="AZ48" s="10"/>
-      <c r="BA48" s="10"/>
-      <c r="BB48" s="10"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="10"/>
-      <c r="BI48" s="10"/>
-      <c r="BJ48" s="10"/>
-      <c r="BK48" s="10"/>
-      <c r="BL48" s="10"/>
-      <c r="BM48" s="10"/>
-      <c r="BN48" s="10"/>
-      <c r="BO48" s="10"/>
-      <c r="BP48" s="10"/>
-      <c r="BQ48" s="10"/>
-      <c r="BR48" s="10"/>
-      <c r="BS48" s="10"/>
-      <c r="BT48" s="10"/>
-      <c r="BU48" s="10"/>
-      <c r="BV48" s="10"/>
-      <c r="BW48" s="10"/>
-      <c r="BX48" s="10"/>
-      <c r="BY48" s="10"/>
-      <c r="BZ48" s="10"/>
-      <c r="CA48" s="10"/>
-      <c r="CB48" s="10"/>
-      <c r="CC48" s="10"/>
-      <c r="CD48" s="10"/>
-      <c r="CE48" s="10"/>
-      <c r="CF48" s="10"/>
-      <c r="CG48" s="10"/>
-      <c r="CH48" s="10"/>
-      <c r="CI48" s="10"/>
-      <c r="CJ48" s="10"/>
-      <c r="CK48" s="10"/>
-      <c r="CL48" s="10"/>
-      <c r="CM48" s="10"/>
-      <c r="CN48" s="10"/>
-      <c r="CO48" s="10"/>
-      <c r="CP48" s="10"/>
-      <c r="CQ48" s="10"/>
-      <c r="CR48" s="10"/>
-      <c r="CS48" s="10"/>
-      <c r="CT48" s="10"/>
-      <c r="CU48" s="10"/>
-      <c r="CV48" s="10"/>
-      <c r="CW48" s="10"/>
-      <c r="CX48" s="10"/>
-      <c r="CY48" s="10"/>
-      <c r="CZ48" s="10"/>
-      <c r="DA48" s="10"/>
-      <c r="DB48" s="10"/>
-      <c r="DC48" s="10"/>
-      <c r="DD48" s="10"/>
-      <c r="DE48" s="10"/>
-      <c r="DF48" s="10"/>
-      <c r="DG48" s="10"/>
-      <c r="DH48" s="10"/>
-      <c r="DI48" s="10"/>
-      <c r="DJ48" s="10"/>
-      <c r="DK48" s="10"/>
-      <c r="DL48" s="10"/>
-      <c r="DM48" s="10"/>
-      <c r="DN48" s="10"/>
-      <c r="DO48" s="10"/>
-      <c r="DP48" s="10"/>
-      <c r="DQ48" s="10"/>
-      <c r="DR48" s="10"/>
-      <c r="DS48" s="10"/>
-      <c r="DT48" s="10"/>
-      <c r="DU48" s="10"/>
-      <c r="DV48" s="10"/>
-      <c r="DW48" s="10"/>
-      <c r="DX48" s="10"/>
-      <c r="DY48" s="10"/>
-      <c r="DZ48" s="10"/>
-      <c r="EA48" s="10"/>
-      <c r="EB48" s="10"/>
-      <c r="EC48" s="10"/>
-      <c r="ED48" s="10"/>
-      <c r="EE48" s="10"/>
-      <c r="EF48" s="10"/>
-      <c r="EG48" s="10"/>
-      <c r="EH48" s="10"/>
-      <c r="EI48" s="10"/>
-      <c r="EJ48" s="10"/>
-      <c r="EK48" s="10"/>
-      <c r="EL48" s="10"/>
-      <c r="EM48" s="10"/>
-      <c r="EN48" s="10"/>
-      <c r="EO48" s="10"/>
-      <c r="EP48" s="10"/>
-      <c r="EQ48" s="10"/>
-      <c r="ER48" s="10"/>
-      <c r="ES48" s="10"/>
-      <c r="ET48" s="10"/>
-      <c r="EU48" s="10"/>
-      <c r="EV48" s="10"/>
-      <c r="EW48" s="10"/>
-      <c r="EX48" s="10"/>
-      <c r="EY48" s="10"/>
-      <c r="EZ48" s="10"/>
-      <c r="FA48" s="10"/>
-      <c r="FB48" s="10"/>
-      <c r="FC48" s="10"/>
-      <c r="FD48" s="10"/>
-      <c r="FE48" s="10"/>
-      <c r="FF48" s="10"/>
-      <c r="FG48" s="10"/>
-      <c r="FH48" s="10"/>
-      <c r="FI48" s="10"/>
-      <c r="FJ48" s="10"/>
-      <c r="FK48" s="10"/>
-      <c r="FL48" s="10"/>
-      <c r="FM48" s="10"/>
-      <c r="FN48" s="10"/>
-      <c r="FO48" s="10"/>
-      <c r="FP48" s="10"/>
-      <c r="FQ48" s="10"/>
-      <c r="FR48" s="10"/>
-      <c r="FS48" s="10"/>
-      <c r="FT48" s="10"/>
-      <c r="FU48" s="10"/>
-      <c r="FV48" s="10"/>
-      <c r="FW48" s="10"/>
-      <c r="FX48" s="10"/>
-      <c r="FY48" s="10"/>
-      <c r="FZ48" s="10"/>
-      <c r="GA48" s="10"/>
-      <c r="GB48" s="10"/>
-      <c r="GC48" s="10"/>
-      <c r="GD48" s="10"/>
-      <c r="GE48" s="10"/>
-      <c r="GF48" s="10"/>
-      <c r="GG48" s="10"/>
-      <c r="GH48" s="10"/>
-      <c r="GI48" s="10"/>
-      <c r="GJ48" s="10"/>
-      <c r="GK48" s="10"/>
-      <c r="GL48" s="10"/>
-      <c r="GM48" s="10"/>
-      <c r="GN48" s="10"/>
-      <c r="GO48" s="10"/>
-      <c r="GP48" s="10"/>
-      <c r="GQ48" s="10"/>
-      <c r="GR48" s="10"/>
-      <c r="GS48" s="10"/>
-      <c r="GT48" s="10"/>
-      <c r="GU48" s="10"/>
-      <c r="GV48" s="10"/>
-      <c r="GW48" s="10"/>
-      <c r="GX48" s="10"/>
-      <c r="GY48" s="10"/>
-      <c r="GZ48" s="10"/>
-      <c r="HA48" s="10"/>
-      <c r="HB48" s="10"/>
-      <c r="HC48" s="10"/>
-      <c r="HD48" s="10"/>
-      <c r="HE48" s="10"/>
-      <c r="HF48" s="10"/>
-      <c r="HG48" s="10"/>
-      <c r="HH48" s="10"/>
-      <c r="HI48" s="10"/>
-      <c r="HJ48" s="10"/>
-      <c r="HK48" s="10"/>
-      <c r="HL48" s="10"/>
-      <c r="HM48" s="10"/>
-      <c r="HN48" s="10"/>
-      <c r="HO48" s="10"/>
-      <c r="HP48" s="10"/>
-      <c r="HQ48" s="10"/>
-      <c r="HR48" s="10"/>
-      <c r="HS48" s="10"/>
-      <c r="HT48" s="10"/>
-      <c r="HU48" s="10"/>
-      <c r="HV48" s="10"/>
-      <c r="HW48" s="10"/>
-      <c r="HX48" s="10"/>
-      <c r="HY48" s="10"/>
-      <c r="HZ48" s="10"/>
-      <c r="IA48" s="10"/>
-      <c r="IB48" s="10"/>
-      <c r="IC48" s="10"/>
-      <c r="ID48" s="10"/>
-      <c r="IE48" s="10"/>
-      <c r="IF48" s="10"/>
-      <c r="IG48" s="10"/>
-      <c r="IH48" s="10"/>
-      <c r="II48" s="10"/>
-      <c r="IJ48" s="10"/>
-      <c r="IK48" s="10"/>
-      <c r="IL48" s="10"/>
-      <c r="IM48" s="10"/>
-      <c r="IN48" s="10"/>
-      <c r="IO48" s="10"/>
-      <c r="IP48" s="10"/>
-      <c r="IQ48" s="10"/>
-      <c r="IR48" s="10"/>
-      <c r="IS48" s="10"/>
-      <c r="IT48" s="10"/>
-      <c r="IU48" s="10"/>
-      <c r="IV48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" ht="23" customHeight="1">
-      <c r="A49" s="18" t="s">
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="10"/>
+      <c r="BA49" s="10"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="10"/>
+      <c r="BJ49" s="10"/>
+      <c r="BK49" s="10"/>
+      <c r="BL49" s="10"/>
+      <c r="BM49" s="10"/>
+      <c r="BN49" s="10"/>
+      <c r="BO49" s="10"/>
+      <c r="BP49" s="10"/>
+      <c r="BQ49" s="10"/>
+      <c r="BR49" s="10"/>
+      <c r="BS49" s="10"/>
+      <c r="BT49" s="10"/>
+      <c r="BU49" s="10"/>
+      <c r="BV49" s="10"/>
+      <c r="BW49" s="10"/>
+      <c r="BX49" s="10"/>
+      <c r="BY49" s="10"/>
+      <c r="BZ49" s="10"/>
+      <c r="CA49" s="10"/>
+      <c r="CB49" s="10"/>
+      <c r="CC49" s="10"/>
+      <c r="CD49" s="10"/>
+      <c r="CE49" s="10"/>
+      <c r="CF49" s="10"/>
+      <c r="CG49" s="10"/>
+      <c r="CH49" s="10"/>
+      <c r="CI49" s="10"/>
+      <c r="CJ49" s="10"/>
+      <c r="CK49" s="10"/>
+      <c r="CL49" s="10"/>
+      <c r="CM49" s="10"/>
+      <c r="CN49" s="10"/>
+      <c r="CO49" s="10"/>
+      <c r="CP49" s="10"/>
+      <c r="CQ49" s="10"/>
+      <c r="CR49" s="10"/>
+      <c r="CS49" s="10"/>
+      <c r="CT49" s="10"/>
+      <c r="CU49" s="10"/>
+      <c r="CV49" s="10"/>
+      <c r="CW49" s="10"/>
+      <c r="CX49" s="10"/>
+      <c r="CY49" s="10"/>
+      <c r="CZ49" s="10"/>
+      <c r="DA49" s="10"/>
+      <c r="DB49" s="10"/>
+      <c r="DC49" s="10"/>
+      <c r="DD49" s="10"/>
+      <c r="DE49" s="10"/>
+      <c r="DF49" s="10"/>
+      <c r="DG49" s="10"/>
+      <c r="DH49" s="10"/>
+      <c r="DI49" s="10"/>
+      <c r="DJ49" s="10"/>
+      <c r="DK49" s="10"/>
+      <c r="DL49" s="10"/>
+      <c r="DM49" s="10"/>
+      <c r="DN49" s="10"/>
+      <c r="DO49" s="10"/>
+      <c r="DP49" s="10"/>
+      <c r="DQ49" s="10"/>
+      <c r="DR49" s="10"/>
+      <c r="DS49" s="10"/>
+      <c r="DT49" s="10"/>
+      <c r="DU49" s="10"/>
+      <c r="DV49" s="10"/>
+      <c r="DW49" s="10"/>
+      <c r="DX49" s="10"/>
+      <c r="DY49" s="10"/>
+      <c r="DZ49" s="10"/>
+      <c r="EA49" s="10"/>
+      <c r="EB49" s="10"/>
+      <c r="EC49" s="10"/>
+      <c r="ED49" s="10"/>
+      <c r="EE49" s="10"/>
+      <c r="EF49" s="10"/>
+      <c r="EG49" s="10"/>
+      <c r="EH49" s="10"/>
+      <c r="EI49" s="10"/>
+      <c r="EJ49" s="10"/>
+      <c r="EK49" s="10"/>
+      <c r="EL49" s="10"/>
+      <c r="EM49" s="10"/>
+      <c r="EN49" s="10"/>
+      <c r="EO49" s="10"/>
+      <c r="EP49" s="10"/>
+      <c r="EQ49" s="10"/>
+      <c r="ER49" s="10"/>
+      <c r="ES49" s="10"/>
+      <c r="ET49" s="10"/>
+      <c r="EU49" s="10"/>
+      <c r="EV49" s="10"/>
+      <c r="EW49" s="10"/>
+      <c r="EX49" s="10"/>
+      <c r="EY49" s="10"/>
+      <c r="EZ49" s="10"/>
+      <c r="FA49" s="10"/>
+      <c r="FB49" s="10"/>
+      <c r="FC49" s="10"/>
+      <c r="FD49" s="10"/>
+      <c r="FE49" s="10"/>
+      <c r="FF49" s="10"/>
+      <c r="FG49" s="10"/>
+      <c r="FH49" s="10"/>
+      <c r="FI49" s="10"/>
+      <c r="FJ49" s="10"/>
+      <c r="FK49" s="10"/>
+      <c r="FL49" s="10"/>
+      <c r="FM49" s="10"/>
+      <c r="FN49" s="10"/>
+      <c r="FO49" s="10"/>
+      <c r="FP49" s="10"/>
+      <c r="FQ49" s="10"/>
+      <c r="FR49" s="10"/>
+      <c r="FS49" s="10"/>
+      <c r="FT49" s="10"/>
+      <c r="FU49" s="10"/>
+      <c r="FV49" s="10"/>
+      <c r="FW49" s="10"/>
+      <c r="FX49" s="10"/>
+      <c r="FY49" s="10"/>
+      <c r="FZ49" s="10"/>
+      <c r="GA49" s="10"/>
+      <c r="GB49" s="10"/>
+      <c r="GC49" s="10"/>
+      <c r="GD49" s="10"/>
+      <c r="GE49" s="10"/>
+      <c r="GF49" s="10"/>
+      <c r="GG49" s="10"/>
+      <c r="GH49" s="10"/>
+      <c r="GI49" s="10"/>
+      <c r="GJ49" s="10"/>
+      <c r="GK49" s="10"/>
+      <c r="GL49" s="10"/>
+      <c r="GM49" s="10"/>
+      <c r="GN49" s="10"/>
+      <c r="GO49" s="10"/>
+      <c r="GP49" s="10"/>
+      <c r="GQ49" s="10"/>
+      <c r="GR49" s="10"/>
+      <c r="GS49" s="10"/>
+      <c r="GT49" s="10"/>
+      <c r="GU49" s="10"/>
+      <c r="GV49" s="10"/>
+      <c r="GW49" s="10"/>
+      <c r="GX49" s="10"/>
+      <c r="GY49" s="10"/>
+      <c r="GZ49" s="10"/>
+      <c r="HA49" s="10"/>
+      <c r="HB49" s="10"/>
+      <c r="HC49" s="10"/>
+      <c r="HD49" s="10"/>
+      <c r="HE49" s="10"/>
+      <c r="HF49" s="10"/>
+      <c r="HG49" s="10"/>
+      <c r="HH49" s="10"/>
+      <c r="HI49" s="10"/>
+      <c r="HJ49" s="10"/>
+      <c r="HK49" s="10"/>
+      <c r="HL49" s="10"/>
+      <c r="HM49" s="10"/>
+      <c r="HN49" s="10"/>
+      <c r="HO49" s="10"/>
+      <c r="HP49" s="10"/>
+      <c r="HQ49" s="10"/>
+      <c r="HR49" s="10"/>
+      <c r="HS49" s="10"/>
+      <c r="HT49" s="10"/>
+      <c r="HU49" s="10"/>
+      <c r="HV49" s="10"/>
+      <c r="HW49" s="10"/>
+      <c r="HX49" s="10"/>
+      <c r="HY49" s="10"/>
+      <c r="HZ49" s="10"/>
+      <c r="IA49" s="10"/>
+      <c r="IB49" s="10"/>
+      <c r="IC49" s="10"/>
+      <c r="ID49" s="10"/>
+      <c r="IE49" s="10"/>
+      <c r="IF49" s="10"/>
+      <c r="IG49" s="10"/>
+      <c r="IH49" s="10"/>
+      <c r="II49" s="10"/>
+      <c r="IJ49" s="10"/>
+      <c r="IK49" s="10"/>
+      <c r="IL49" s="10"/>
+      <c r="IM49" s="10"/>
+      <c r="IN49" s="10"/>
+      <c r="IO49" s="10"/>
+      <c r="IP49" s="10"/>
+      <c r="IQ49" s="10"/>
+      <c r="IR49" s="10"/>
+      <c r="IS49" s="10"/>
+      <c r="IT49" s="10"/>
+      <c r="IU49" s="10"/>
+      <c r="IV49" s="10"/>
+    </row>
+    <row r="50" spans="1:256" ht="23" customHeight="1">
+      <c r="A50" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
@@ -4661,7 +4954,7 @@
     <hyperlink ref="H42" r:id="rId24"/>
     <hyperlink ref="H43" r:id="rId25"/>
     <hyperlink ref="H45" r:id="rId26"/>
-    <hyperlink ref="H48" r:id="rId27"/>
+    <hyperlink ref="H49" r:id="rId27"/>
     <hyperlink ref="H44" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
